--- a/shop.xlsx
+++ b/shop.xlsx
@@ -16,141 +16,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>店铺编号</t>
-  </si>
-  <si>
-    <t>锅先森</t>
-  </si>
-  <si>
-    <t>（57号店）</t>
-  </si>
-  <si>
-    <t>柠檬工坊</t>
-  </si>
-  <si>
-    <t>（108号店）</t>
-  </si>
-  <si>
-    <t>鱼火火</t>
-  </si>
-  <si>
-    <t>（97号店）</t>
-  </si>
-  <si>
-    <t>张一碗</t>
-  </si>
-  <si>
-    <t>（76号店）</t>
-  </si>
-  <si>
-    <t>贝克汉堡</t>
-  </si>
-  <si>
-    <t>（64号店）</t>
-  </si>
-  <si>
-    <t>山村米姑娘</t>
-  </si>
-  <si>
-    <t>（128号店）</t>
-  </si>
-  <si>
-    <t>蒸美味</t>
-  </si>
-  <si>
-    <t>（141号店）</t>
-  </si>
-  <si>
-    <t>乔东家排骨大包</t>
-  </si>
-  <si>
-    <t>（131号店）</t>
-  </si>
-  <si>
-    <t>瓦罐香沸</t>
-  </si>
-  <si>
-    <t>（88号店）</t>
-  </si>
-  <si>
-    <t>壹点壹</t>
-  </si>
-  <si>
-    <t>（80号店）</t>
-  </si>
-  <si>
-    <t>姥娘包子</t>
-  </si>
-  <si>
-    <t>（83号店）</t>
-  </si>
-  <si>
-    <t>（87号店）</t>
-  </si>
-  <si>
-    <t>（118号店）</t>
-  </si>
-  <si>
-    <t>（91号店）</t>
-  </si>
-  <si>
-    <t>（66号店）</t>
-  </si>
-  <si>
-    <t>（60号店）</t>
-  </si>
-  <si>
-    <t>（158号店）</t>
-  </si>
-  <si>
-    <t>（149号店）</t>
-  </si>
-  <si>
-    <t>（181号店）</t>
-  </si>
-  <si>
-    <t>（67号店）</t>
-  </si>
-  <si>
-    <t>（92号店）</t>
-  </si>
-  <si>
-    <t>（89号店）</t>
-  </si>
-  <si>
-    <t>（41号店）</t>
-  </si>
-  <si>
-    <t>（55号店）</t>
-  </si>
-  <si>
-    <t>（44号店）</t>
-  </si>
-  <si>
-    <t>（98号店）</t>
-  </si>
-  <si>
-    <t>（86号店）</t>
-  </si>
-  <si>
-    <t>（133号店）</t>
-  </si>
-  <si>
-    <t>（101号店）</t>
-  </si>
-  <si>
-    <t>（72号店）</t>
-  </si>
-  <si>
-    <t>（46号店）</t>
-  </si>
-  <si>
-    <t>（70号店）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+  <si>
+    <t>招牌金汤米线套餐</t>
+  </si>
+  <si>
+    <t>招牌金汤米线</t>
+  </si>
+  <si>
+    <t>原味鸡腿堡</t>
+  </si>
+  <si>
+    <t>泡菜过桥米线套餐</t>
+  </si>
+  <si>
+    <t>原味过桥米线</t>
+  </si>
+  <si>
+    <t>壹點壹香香鸡</t>
+  </si>
+  <si>
+    <t>壹點壹香辣鸡翅</t>
+  </si>
+  <si>
+    <t>黑金鸡块</t>
+  </si>
+  <si>
+    <t>扬州炒饭</t>
+  </si>
+  <si>
+    <t>香辣鸡腿堡</t>
+  </si>
+  <si>
+    <t>瓦罐红烧肉套餐</t>
+  </si>
+  <si>
+    <t>台式香辣排骨</t>
+  </si>
+  <si>
+    <t>台式香菇滑鸡</t>
+  </si>
+  <si>
+    <t>台式卤肉饭</t>
+  </si>
+  <si>
+    <t>台式黑椒鸡翅</t>
+  </si>
+  <si>
+    <t>台式干锅鸭</t>
+  </si>
+  <si>
+    <t>酸汤鱼</t>
+  </si>
+  <si>
+    <t>酸辣过桥米线套餐</t>
+  </si>
+  <si>
+    <t>酸菜过桥米线</t>
+  </si>
+  <si>
+    <t>排骨大包</t>
+  </si>
+  <si>
+    <t>糯米丸子</t>
+  </si>
+  <si>
+    <t>柠檬水</t>
+  </si>
+  <si>
+    <t>咖喱蒸鸡</t>
+  </si>
+  <si>
+    <t>咖喱脆骨炒饭</t>
+  </si>
+  <si>
+    <t>金桔柠檬</t>
+  </si>
+  <si>
+    <t>金桔蜜柚</t>
+  </si>
+  <si>
+    <t>酱肉大包</t>
+  </si>
+  <si>
+    <t>鸡腿堡套餐</t>
+  </si>
+  <si>
+    <t>黄金酸辣米线</t>
+  </si>
+  <si>
+    <t>黑椒蒸排骨</t>
+  </si>
+  <si>
+    <t>甘梅地瓜条</t>
+  </si>
+  <si>
+    <t>蜂蜜柚子茶</t>
+  </si>
+  <si>
+    <t>番茄过桥米线</t>
+  </si>
+  <si>
+    <t>豉汁排骨</t>
+  </si>
+  <si>
+    <t>菠萝腰果炒饭</t>
+  </si>
+  <si>
+    <t>碧海蓝天</t>
+  </si>
+  <si>
+    <t>全家福大包</t>
+  </si>
+  <si>
+    <t>爆汁脆脆鸡</t>
+  </si>
+  <si>
+    <t>白灼西兰花</t>
+  </si>
+  <si>
+    <t>奥尔良烤鸡腿堡</t>
   </si>
 </sst>
 </file>
@@ -158,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -184,6 +169,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -191,19 +191,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,89 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -306,18 +244,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -330,19 +315,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,163 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,17 +506,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -546,6 +520,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,18 +598,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,130 +629,130 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1141,264 +1126,320 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>408631</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>307582</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>298472</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>289647</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>276358</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>274813</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>247598</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>238674</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>232988</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>219640</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>217835</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>217490</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>213528</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>209645</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>207768</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>206731</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>197584</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>197458</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>196493</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>187958</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>187493</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>175302</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>174762</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>168366</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>157482</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>136721</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>107462</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>98762</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>98358</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>97562</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>97538</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>97462</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>90734</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>89548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>87462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>87437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>168572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>145630</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>143671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>142841</v>
       </c>
     </row>
   </sheetData>
